--- a/config_10.26/task_server.xlsx
+++ b/config_10.26/task_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="656">
   <si>
     <t>id|任务id</t>
   </si>
@@ -3414,6 +3414,10 @@
       </rPr>
       <t>6</t>
     </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>hgly_buy_gift_get_award_task</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4213,7 +4217,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D145" sqref="D145"/>
+      <selection pane="bottomLeft" activeCell="E146" sqref="E146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -9338,7 +9342,7 @@
         <v>637</v>
       </c>
       <c r="E140" s="108" t="s">
-        <v>39</v>
+        <v>655</v>
       </c>
       <c r="F140" s="106">
         <v>140</v>
@@ -9450,9 +9454,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L143"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A143" sqref="A143"/>
+      <selection pane="bottomLeft" activeCell="H141" sqref="H141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -13026,9 +13030,6 @@
         <v>638</v>
       </c>
       <c r="G141" s="104"/>
-      <c r="H141" s="104">
-        <v>49</v>
-      </c>
       <c r="I141" s="109" t="s">
         <v>645</v>
       </c>
@@ -17108,9 +17109,9 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:I409"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A334" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G332" sqref="G332"/>
+      <selection pane="bottomLeft" activeCell="C363" sqref="C363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -57735,16 +57736,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C45:C46"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C45:C46"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_10.26/task_server.xlsx
+++ b/config_10.26/task_server.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1716" uniqueCount="662">
   <si>
     <t>id|任务id</t>
   </si>
@@ -3418,6 +3418,30 @@
   </si>
   <si>
     <t>hgly_buy_gift_get_award_task</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>回归礼遇（购买礼包）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_come_back_courtesy</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_come_back_courtesy</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>common</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>buy_gift</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4213,11 +4237,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U142"/>
+  <dimension ref="A1:U143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E146" sqref="E146"/>
+      <selection pane="bottomLeft" activeCell="F143" sqref="F143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -9339,7 +9363,7 @@
         <v>640</v>
       </c>
       <c r="D140" s="107" t="s">
-        <v>637</v>
+        <v>657</v>
       </c>
       <c r="E140" s="108" t="s">
         <v>655</v>
@@ -9439,6 +9463,44 @@
         <v>-1</v>
       </c>
       <c r="L142" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12">
+      <c r="A143" s="12">
+        <v>30043</v>
+      </c>
+      <c r="B143" s="12">
+        <v>1</v>
+      </c>
+      <c r="C143" s="12" t="s">
+        <v>656</v>
+      </c>
+      <c r="D143" s="12" t="s">
+        <v>658</v>
+      </c>
+      <c r="E143" s="12" t="s">
+        <v>659</v>
+      </c>
+      <c r="F143" s="12">
+        <v>143</v>
+      </c>
+      <c r="G143" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H143" s="12">
+        <v>7</v>
+      </c>
+      <c r="I143" s="12">
+        <v>1635177600</v>
+      </c>
+      <c r="J143" s="106">
+        <v>32503651200</v>
+      </c>
+      <c r="K143" s="106">
+        <v>-1</v>
+      </c>
+      <c r="L143" s="12">
         <v>1</v>
       </c>
     </row>
@@ -9452,11 +9514,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:L143"/>
+  <dimension ref="A1:L144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H141" sqref="H141"/>
+      <selection pane="bottomLeft" activeCell="F147" sqref="F147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -13071,6 +13133,20 @@
         <v>1</v>
       </c>
     </row>
+    <row r="144" spans="1:10">
+      <c r="A144" s="4">
+        <v>143</v>
+      </c>
+      <c r="B144" s="4">
+        <v>143</v>
+      </c>
+      <c r="D144" s="4">
+        <v>127</v>
+      </c>
+      <c r="F144" s="48" t="s">
+        <v>660</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -13081,11 +13157,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I160"/>
+  <dimension ref="A1:I161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D160" sqref="D160"/>
+      <selection pane="bottomLeft" activeCell="B161" sqref="B161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -15646,6 +15722,20 @@
       </c>
       <c r="D160" s="18">
         <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="4">
+        <v>160</v>
+      </c>
+      <c r="B161" s="4">
+        <v>127</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="D161" s="18">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -15665,7 +15755,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D85" sqref="D85"/>
+      <selection pane="bottomLeft" activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -57736,16 +57826,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B45:B46"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C45:C46"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B45:B46"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_10.26/task_server.xlsx
+++ b/config_10.26/task_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -1819,9 +1819,6 @@
   </si>
   <si>
     <t>fish_game_id</t>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,107,108,110,101,102,103,104,105,106,22,23,24,25,26,27,34,111,10330,85,86,87,88,89,109,10044,10045,90,10189,10490,10491,10493,10494,10495,10492</t>
   </si>
   <si>
     <t>task_id</t>
@@ -3442,6 +3439,10 @@
   </si>
   <si>
     <t>buy_gift</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>10084,10,10080,10169,10190,10087,10088,10290,10291,10346,10347</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4241,7 +4242,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F143" sqref="F143"/>
+      <selection pane="bottomLeft" activeCell="F135" sqref="F135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -8562,13 +8563,13 @@
         <v>1</v>
       </c>
       <c r="C119" s="77" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D119" s="77" t="s">
+        <v>501</v>
+      </c>
+      <c r="E119" s="78" t="s">
         <v>502</v>
-      </c>
-      <c r="E119" s="78" t="s">
-        <v>503</v>
       </c>
       <c r="F119" s="77">
         <v>119</v>
@@ -8600,13 +8601,13 @@
         <v>1</v>
       </c>
       <c r="C120" s="77" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D120" s="77" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E120" s="78" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F120" s="77">
         <v>120</v>
@@ -8638,13 +8639,13 @@
         <v>1</v>
       </c>
       <c r="C121" s="77" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D121" s="78" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E121" s="78" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F121" s="77">
         <v>121</v>
@@ -8676,13 +8677,13 @@
         <v>1</v>
       </c>
       <c r="C122" s="77" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D122" s="78" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E122" s="78" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F122" s="77">
         <v>122</v>
@@ -8714,13 +8715,13 @@
         <v>1</v>
       </c>
       <c r="C123" s="77" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D123" s="78" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E123" s="78" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F123" s="77">
         <v>123</v>
@@ -8752,13 +8753,13 @@
         <v>1</v>
       </c>
       <c r="C124" s="85" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D124" s="85" t="s">
+        <v>519</v>
+      </c>
+      <c r="E124" s="85" t="s">
         <v>520</v>
-      </c>
-      <c r="E124" s="85" t="s">
-        <v>521</v>
       </c>
       <c r="F124" s="84">
         <v>124</v>
@@ -8790,13 +8791,13 @@
         <v>1</v>
       </c>
       <c r="C125" s="85" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D125" s="85" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E125" s="85" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F125" s="84">
         <v>125</v>
@@ -8828,13 +8829,13 @@
         <v>1</v>
       </c>
       <c r="C126" s="85" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D126" s="85" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E126" s="85" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F126" s="84">
         <v>126</v>
@@ -8866,13 +8867,13 @@
         <v>1</v>
       </c>
       <c r="C127" s="85" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D127" s="85" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E127" s="85" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F127" s="84">
         <v>127</v>
@@ -8904,13 +8905,13 @@
         <v>1</v>
       </c>
       <c r="C128" s="85" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D128" s="85" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E128" s="85" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F128" s="84">
         <v>128</v>
@@ -8942,13 +8943,13 @@
         <v>1</v>
       </c>
       <c r="C129" s="85" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D129" s="85" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E129" s="85" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F129" s="84">
         <v>129</v>
@@ -8980,13 +8981,13 @@
         <v>1</v>
       </c>
       <c r="C130" s="85" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D130" s="85" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E130" s="85" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F130" s="84">
         <v>130</v>
@@ -9018,13 +9019,13 @@
         <v>1</v>
       </c>
       <c r="C131" s="85" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D131" s="85" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E131" s="85" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F131" s="84">
         <v>131</v>
@@ -9056,13 +9057,13 @@
         <v>1</v>
       </c>
       <c r="C132" s="85" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D132" s="85" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E132" s="85" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F132" s="84">
         <v>132</v>
@@ -9094,13 +9095,13 @@
         <v>1</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D133" s="12" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E133" s="12" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F133" s="12">
         <v>133</v>
@@ -9135,7 +9136,7 @@
         <v>170</v>
       </c>
       <c r="D134" s="50" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E134" s="50" t="s">
         <v>39</v>
@@ -9173,7 +9174,7 @@
         <v>172</v>
       </c>
       <c r="D135" s="50" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E135" s="50" t="s">
         <v>39</v>
@@ -9208,10 +9209,10 @@
         <v>1</v>
       </c>
       <c r="C136" s="107" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D136" s="107" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E136" s="108" t="s">
         <v>39</v>
@@ -9246,10 +9247,10 @@
         <v>1</v>
       </c>
       <c r="C137" s="107" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D137" s="107" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E137" s="108" t="s">
         <v>39</v>
@@ -9284,10 +9285,10 @@
         <v>1</v>
       </c>
       <c r="C138" s="107" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D138" s="107" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E138" s="108" t="s">
         <v>39</v>
@@ -9322,10 +9323,10 @@
         <v>1</v>
       </c>
       <c r="C139" s="107" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D139" s="107" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E139" s="108" t="s">
         <v>39</v>
@@ -9360,13 +9361,13 @@
         <v>1</v>
       </c>
       <c r="C140" s="107" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D140" s="107" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E140" s="108" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F140" s="106">
         <v>140</v>
@@ -9398,10 +9399,10 @@
         <v>1</v>
       </c>
       <c r="C141" s="105" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D141" s="105" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E141" s="108" t="s">
         <v>39</v>
@@ -9436,10 +9437,10 @@
         <v>1</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D142" s="105" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E142" s="108" t="s">
         <v>39</v>
@@ -9474,13 +9475,13 @@
         <v>1</v>
       </c>
       <c r="C143" s="12" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D143" s="12" t="s">
+        <v>657</v>
+      </c>
+      <c r="E143" s="12" t="s">
         <v>658</v>
-      </c>
-      <c r="E143" s="12" t="s">
-        <v>659</v>
       </c>
       <c r="F143" s="12">
         <v>143</v>
@@ -9516,9 +9517,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F147" sqref="F147"/>
+      <selection pane="bottomLeft" activeCell="D136" sqref="D136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -9556,7 +9557,7 @@
         <v>202</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I1" s="49" t="s">
         <v>203</v>
@@ -12608,10 +12609,10 @@
       <c r="G120" s="79"/>
       <c r="H120" s="79"/>
       <c r="I120" s="82" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J120" s="81" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="121" spans="1:11" s="80" customFormat="1">
@@ -12632,10 +12633,10 @@
       <c r="G121" s="79"/>
       <c r="H121" s="79"/>
       <c r="I121" s="82" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J121" s="81" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="122" spans="1:11" s="80" customFormat="1">
@@ -12656,10 +12657,10 @@
       <c r="G122" s="79"/>
       <c r="H122" s="79"/>
       <c r="I122" s="82" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="J122" s="81" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="123" spans="1:11" s="80" customFormat="1">
@@ -12680,10 +12681,10 @@
       <c r="G123" s="79"/>
       <c r="H123" s="79"/>
       <c r="I123" s="82" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="J123" s="81" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="124" spans="1:11" s="80" customFormat="1">
@@ -12704,10 +12705,10 @@
       <c r="G124" s="79"/>
       <c r="H124" s="79"/>
       <c r="I124" s="82" t="s">
+        <v>511</v>
+      </c>
+      <c r="J124" s="81" t="s">
         <v>512</v>
-      </c>
-      <c r="J124" s="81" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="125" spans="1:11" s="87" customFormat="1">
@@ -12723,15 +12724,15 @@
       </c>
       <c r="E125" s="86"/>
       <c r="F125" s="93" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G125" s="86"/>
       <c r="H125" s="86"/>
       <c r="I125" s="93" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="J125" s="88" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="126" spans="1:11" s="87" customFormat="1">
@@ -12747,15 +12748,15 @@
       </c>
       <c r="E126" s="86"/>
       <c r="F126" s="93" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G126" s="86"/>
       <c r="H126" s="86"/>
       <c r="I126" s="93" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="J126" s="88" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="127" spans="1:11" s="87" customFormat="1">
@@ -12771,15 +12772,15 @@
       </c>
       <c r="E127" s="86"/>
       <c r="F127" s="93" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G127" s="86"/>
       <c r="H127" s="86"/>
       <c r="I127" s="93" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="J127" s="88" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="128" spans="1:11" s="87" customFormat="1">
@@ -12795,15 +12796,15 @@
       </c>
       <c r="E128" s="86"/>
       <c r="F128" s="93" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G128" s="86"/>
       <c r="H128" s="86"/>
       <c r="I128" s="93" t="s">
+        <v>574</v>
+      </c>
+      <c r="J128" s="88" t="s">
         <v>575</v>
-      </c>
-      <c r="J128" s="88" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="129" spans="1:10" s="87" customFormat="1">
@@ -12819,15 +12820,15 @@
       </c>
       <c r="E129" s="86"/>
       <c r="F129" s="93" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G129" s="86"/>
       <c r="H129" s="86"/>
       <c r="I129" s="93" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="J129" s="88" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="130" spans="1:10" s="87" customFormat="1">
@@ -12843,15 +12844,15 @@
       </c>
       <c r="E130" s="86"/>
       <c r="F130" s="93" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G130" s="86"/>
       <c r="H130" s="86"/>
       <c r="I130" s="93" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="J130" s="88" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="131" spans="1:10" s="87" customFormat="1">
@@ -12867,15 +12868,15 @@
       </c>
       <c r="E131" s="86"/>
       <c r="F131" s="93" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G131" s="86"/>
       <c r="H131" s="86"/>
       <c r="I131" s="93" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="J131" s="88" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="132" spans="1:10" s="87" customFormat="1">
@@ -12891,15 +12892,15 @@
       </c>
       <c r="E132" s="86"/>
       <c r="F132" s="93" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G132" s="86"/>
       <c r="H132" s="86"/>
       <c r="I132" s="93" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="J132" s="88" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="133" spans="1:10" s="87" customFormat="1">
@@ -12913,15 +12914,15 @@
       <c r="D133" s="86"/>
       <c r="E133" s="86"/>
       <c r="F133" s="93" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G133" s="86"/>
       <c r="H133" s="86"/>
       <c r="I133" s="93" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="J133" s="88" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="134" spans="1:10" s="101" customFormat="1">
@@ -12937,15 +12938,15 @@
       </c>
       <c r="E134" s="99"/>
       <c r="F134" s="100" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G134" s="99"/>
       <c r="H134" s="99"/>
       <c r="I134" s="100" t="s">
+        <v>609</v>
+      </c>
+      <c r="J134" s="99" t="s">
         <v>610</v>
-      </c>
-      <c r="J134" s="99" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="135" spans="1:10" s="101" customFormat="1" ht="57">
@@ -12961,15 +12962,15 @@
       </c>
       <c r="E135" s="99"/>
       <c r="F135" s="102" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G135" s="99"/>
       <c r="H135" s="99"/>
       <c r="I135" s="103" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J135" s="99" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="136" spans="1:10" s="101" customFormat="1" ht="28.5">
@@ -12985,15 +12986,15 @@
       </c>
       <c r="E136" s="99"/>
       <c r="F136" s="102" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G136" s="99"/>
       <c r="H136" s="99"/>
       <c r="I136" s="103" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="J136" s="99" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="137" spans="1:10">
@@ -13007,13 +13008,13 @@
         <v>126</v>
       </c>
       <c r="F137" s="109" t="s">
+        <v>623</v>
+      </c>
+      <c r="I137" s="111" t="s">
+        <v>632</v>
+      </c>
+      <c r="J137" s="83" t="s">
         <v>624</v>
-      </c>
-      <c r="I137" s="111" t="s">
-        <v>633</v>
-      </c>
-      <c r="J137" s="83" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="138" spans="1:10">
@@ -13027,13 +13028,13 @@
         <v>126</v>
       </c>
       <c r="F138" s="109" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I138" s="109" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="J138" s="83" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="139" spans="1:10">
@@ -13047,13 +13048,13 @@
         <v>126</v>
       </c>
       <c r="F139" s="109" t="s">
+        <v>623</v>
+      </c>
+      <c r="I139" s="109" t="s">
+        <v>635</v>
+      </c>
+      <c r="J139" s="83" t="s">
         <v>624</v>
-      </c>
-      <c r="I139" s="109" t="s">
-        <v>636</v>
-      </c>
-      <c r="J139" s="83" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="140" spans="1:10">
@@ -13067,13 +13068,13 @@
         <v>119</v>
       </c>
       <c r="F140" s="109" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I140" s="109" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="J140" s="83" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="141" spans="1:10">
@@ -13089,14 +13090,14 @@
       </c>
       <c r="E141" s="104"/>
       <c r="F141" s="109" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="G141" s="104"/>
       <c r="I141" s="109" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="J141" s="83" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="142" spans="1:10">
@@ -13110,13 +13111,13 @@
         <v>126</v>
       </c>
       <c r="F142" s="109" t="s">
+        <v>647</v>
+      </c>
+      <c r="I142" s="109" t="s">
         <v>648</v>
       </c>
-      <c r="I142" s="109" t="s">
-        <v>649</v>
-      </c>
       <c r="J142" s="83" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="143" spans="1:10">
@@ -13127,7 +13128,7 @@
         <v>142</v>
       </c>
       <c r="F143" s="48" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="G143" s="4">
         <v>1</v>
@@ -13144,7 +13145,7 @@
         <v>127</v>
       </c>
       <c r="F144" s="48" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
   </sheetData>
@@ -13160,8 +13161,8 @@
   <dimension ref="A1:I161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B161" sqref="B161"/>
+      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D116" sqref="D116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -15438,7 +15439,7 @@
         <v>106</v>
       </c>
       <c r="C140" s="94" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D140" s="18">
         <v>0</v>
@@ -15564,7 +15565,7 @@
         <v>115</v>
       </c>
       <c r="C149" s="83" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D149" s="18">
         <v>43</v>
@@ -15578,7 +15579,7 @@
         <v>116</v>
       </c>
       <c r="C150" s="83" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D150" s="18">
         <v>44</v>
@@ -15592,7 +15593,7 @@
         <v>117</v>
       </c>
       <c r="C151" s="83" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D151" s="18">
         <v>0</v>
@@ -15606,7 +15607,7 @@
         <v>118</v>
       </c>
       <c r="C152" s="83" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D152" s="18">
         <v>45</v>
@@ -15620,7 +15621,7 @@
         <v>119</v>
       </c>
       <c r="C153" s="83" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D153" s="18">
         <v>0</v>
@@ -15634,7 +15635,7 @@
         <v>120</v>
       </c>
       <c r="C154" s="83" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D154" s="18">
         <v>46</v>
@@ -15648,7 +15649,7 @@
         <v>121</v>
       </c>
       <c r="C155" s="83" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D155" s="18">
         <v>47</v>
@@ -15662,7 +15663,7 @@
         <v>122</v>
       </c>
       <c r="C156" s="83" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D156" s="18">
         <v>0</v>
@@ -15676,7 +15677,7 @@
         <v>123</v>
       </c>
       <c r="C157" s="83" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D157" s="18">
         <v>48</v>
@@ -15690,7 +15691,7 @@
         <v>124</v>
       </c>
       <c r="C158" s="83" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D158" s="18">
         <v>0</v>
@@ -15704,7 +15705,7 @@
         <v>125</v>
       </c>
       <c r="C159" s="83" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D159" s="18">
         <v>0</v>
@@ -15718,7 +15719,7 @@
         <v>126</v>
       </c>
       <c r="C160" s="83" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D160" s="18">
         <v>0</v>
@@ -15732,7 +15733,7 @@
         <v>127</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D161" s="18">
         <v>49</v>
@@ -15753,9 +15754,9 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C83" sqref="C83"/>
+      <selection pane="bottomLeft" activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -16916,7 +16917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="28.5">
+    <row r="68" spans="1:5">
       <c r="A68" s="12">
         <v>67</v>
       </c>
@@ -16927,10 +16928,10 @@
         <v>391</v>
       </c>
       <c r="D68" s="21" t="s">
-        <v>393</v>
+        <v>661</v>
       </c>
       <c r="E68" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -16941,10 +16942,10 @@
         <v>37</v>
       </c>
       <c r="C69" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="D69" s="23" t="s">
         <v>394</v>
-      </c>
-      <c r="D69" s="23" t="s">
-        <v>395</v>
       </c>
       <c r="E69" s="4">
         <v>2</v>
@@ -16978,7 +16979,7 @@
         <v>392</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E71" s="4">
         <v>2</v>
@@ -16995,7 +16996,7 @@
         <v>392</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E72" s="4">
         <v>2</v>
@@ -17009,10 +17010,10 @@
         <v>40</v>
       </c>
       <c r="C73" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="D73" s="4" t="s">
         <v>397</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>398</v>
       </c>
       <c r="E73" s="4">
         <v>2</v>
@@ -17029,7 +17030,7 @@
         <v>390</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E74" s="4">
         <v>2</v>
@@ -17043,10 +17044,10 @@
         <v>41</v>
       </c>
       <c r="C75" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="D75" s="4" t="s">
         <v>399</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>400</v>
       </c>
       <c r="E75" s="4">
         <v>2</v>
@@ -17060,7 +17061,7 @@
         <v>42</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D76" s="4">
         <v>1</v>
@@ -17077,7 +17078,7 @@
         <v>43</v>
       </c>
       <c r="C77" s="83" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D77" s="4">
         <v>1</v>
@@ -17094,10 +17095,10 @@
         <v>44</v>
       </c>
       <c r="C78" s="83" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D78" s="83" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E78" s="4">
         <v>2</v>
@@ -17111,7 +17112,7 @@
         <v>45</v>
       </c>
       <c r="C79" s="83" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D79" s="4">
         <v>1</v>
@@ -17128,10 +17129,10 @@
         <v>46</v>
       </c>
       <c r="C80" s="83" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D80" s="83" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E80" s="4">
         <v>2</v>
@@ -17145,10 +17146,10 @@
         <v>47</v>
       </c>
       <c r="C81" s="83" t="s">
+        <v>543</v>
+      </c>
+      <c r="D81" s="83" t="s">
         <v>544</v>
-      </c>
-      <c r="D81" s="83" t="s">
-        <v>545</v>
       </c>
       <c r="E81" s="4">
         <v>2</v>
@@ -17162,10 +17163,10 @@
         <v>48</v>
       </c>
       <c r="C82" s="83" t="s">
+        <v>547</v>
+      </c>
+      <c r="D82" s="83" t="s">
         <v>548</v>
-      </c>
-      <c r="D82" s="83" t="s">
-        <v>549</v>
       </c>
       <c r="E82" s="4">
         <v>2</v>
@@ -17179,7 +17180,7 @@
         <v>49</v>
       </c>
       <c r="C83" s="83" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D83" s="4">
         <v>10641</v>
@@ -17191,6 +17192,7 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -20398,7 +20400,7 @@
         <v>160</v>
       </c>
       <c r="C178" s="110" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D178" s="32">
         <v>3</v>
@@ -20436,7 +20438,7 @@
         <v>162</v>
       </c>
       <c r="C180" s="110" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D180" s="32">
         <v>3</v>
@@ -20905,7 +20907,7 @@
         <v>189</v>
       </c>
       <c r="C207" s="94" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D207" s="20">
         <v>400</v>
@@ -20922,7 +20924,7 @@
         <v>190</v>
       </c>
       <c r="C208" s="83" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D208" s="4">
         <v>20</v>
@@ -20939,7 +20941,7 @@
         <v>191</v>
       </c>
       <c r="C209" s="83" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D209" s="4">
         <v>5</v>
@@ -20956,7 +20958,7 @@
         <v>192</v>
       </c>
       <c r="C210" s="83" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D210" s="4">
         <v>5000</v>
@@ -20973,7 +20975,7 @@
         <v>193</v>
       </c>
       <c r="C211" s="83" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D211" s="4">
         <v>10000</v>
@@ -20990,7 +20992,7 @@
         <v>194</v>
       </c>
       <c r="C212" s="83" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D212" s="4">
         <v>10</v>
@@ -21010,7 +21012,7 @@
         <v>316</v>
       </c>
       <c r="D213" s="96" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E213" s="86">
         <v>1</v>
@@ -21024,7 +21026,7 @@
         <v>195</v>
       </c>
       <c r="C214" s="88" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D214" s="86">
         <v>5</v>
@@ -21058,7 +21060,7 @@
         <v>196</v>
       </c>
       <c r="C216" s="88" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D216" s="86">
         <v>5</v>
@@ -21092,7 +21094,7 @@
         <v>197</v>
       </c>
       <c r="C218" s="88" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D218" s="86">
         <v>5</v>
@@ -21112,7 +21114,7 @@
         <v>316</v>
       </c>
       <c r="D219" s="93" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E219" s="86">
         <v>1</v>
@@ -21126,7 +21128,7 @@
         <v>198</v>
       </c>
       <c r="C220" s="88" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D220" s="86">
         <v>5</v>
@@ -21146,7 +21148,7 @@
         <v>316</v>
       </c>
       <c r="D221" s="96" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E221" s="86">
         <v>1</v>
@@ -21160,7 +21162,7 @@
         <v>199</v>
       </c>
       <c r="C222" s="88" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D222" s="86">
         <v>10</v>
@@ -21194,7 +21196,7 @@
         <v>200</v>
       </c>
       <c r="C224" s="88" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D224" s="86">
         <v>5</v>
@@ -21214,7 +21216,7 @@
         <v>316</v>
       </c>
       <c r="D225" s="96" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E225" s="86">
         <v>1</v>
@@ -21228,7 +21230,7 @@
         <v>201</v>
       </c>
       <c r="C226" s="88" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D226" s="86">
         <v>5</v>
@@ -21248,7 +21250,7 @@
         <v>316</v>
       </c>
       <c r="D227" s="96" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E227" s="86">
         <v>1</v>
@@ -21262,7 +21264,7 @@
         <v>202</v>
       </c>
       <c r="C228" s="88" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D228" s="86">
         <v>5</v>
@@ -21279,10 +21281,10 @@
         <v>203</v>
       </c>
       <c r="C229" s="88" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D229" s="96" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E229" s="86">
         <v>1</v>
@@ -21296,7 +21298,7 @@
         <v>203</v>
       </c>
       <c r="C230" s="88" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D230" s="86">
         <v>10</v>
@@ -21313,7 +21315,7 @@
         <v>204</v>
       </c>
       <c r="C231" s="88" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D231" s="86">
         <v>8000</v>
@@ -21330,7 +21332,7 @@
         <v>204</v>
       </c>
       <c r="C232" s="88" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D232" s="86">
         <v>15</v>
@@ -21350,7 +21352,7 @@
         <v>316</v>
       </c>
       <c r="D233" s="96" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E233" s="86">
         <v>1</v>
@@ -21364,7 +21366,7 @@
         <v>205</v>
       </c>
       <c r="C234" s="88" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D234" s="86">
         <v>10</v>
@@ -21384,7 +21386,7 @@
         <v>316</v>
       </c>
       <c r="D235" s="96" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E235" s="86">
         <v>1</v>
@@ -21398,7 +21400,7 @@
         <v>206</v>
       </c>
       <c r="C236" s="88" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D236" s="86">
         <v>10</v>
@@ -21418,7 +21420,7 @@
         <v>316</v>
       </c>
       <c r="D237" s="96" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E237" s="86">
         <v>1</v>
@@ -21432,7 +21434,7 @@
         <v>207</v>
       </c>
       <c r="C238" s="88" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D238" s="86">
         <v>10</v>
@@ -21466,7 +21468,7 @@
         <v>208</v>
       </c>
       <c r="C240" s="88" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D240" s="86">
         <v>20</v>
@@ -21500,7 +21502,7 @@
         <v>209</v>
       </c>
       <c r="C242" s="88" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D242" s="86">
         <v>30</v>
@@ -21534,7 +21536,7 @@
         <v>210</v>
       </c>
       <c r="C244" s="88" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D244" s="86">
         <v>15</v>
@@ -21554,7 +21556,7 @@
         <v>316</v>
       </c>
       <c r="D245" s="96" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E245" s="86">
         <v>1</v>
@@ -21568,7 +21570,7 @@
         <v>211</v>
       </c>
       <c r="C246" s="88" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D246" s="86">
         <v>15</v>
@@ -21588,7 +21590,7 @@
         <v>316</v>
       </c>
       <c r="D247" s="96" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E247" s="86">
         <v>1</v>
@@ -21602,7 +21604,7 @@
         <v>212</v>
       </c>
       <c r="C248" s="88" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D248" s="86">
         <v>15</v>
@@ -21622,7 +21624,7 @@
         <v>316</v>
       </c>
       <c r="D249" s="96" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E249" s="86">
         <v>1</v>
@@ -21636,7 +21638,7 @@
         <v>213</v>
       </c>
       <c r="C250" s="88" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D250" s="86">
         <v>15</v>
@@ -21656,7 +21658,7 @@
         <v>316</v>
       </c>
       <c r="D251" s="96" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E251" s="86">
         <v>1</v>
@@ -21670,7 +21672,7 @@
         <v>214</v>
       </c>
       <c r="C252" s="88" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D252" s="86">
         <v>30</v>
@@ -21690,7 +21692,7 @@
         <v>316</v>
       </c>
       <c r="D253" s="96" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E253" s="86">
         <v>1</v>
@@ -21704,7 +21706,7 @@
         <v>215</v>
       </c>
       <c r="C254" s="88" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D254" s="86">
         <v>15</v>
@@ -21724,7 +21726,7 @@
         <v>316</v>
       </c>
       <c r="D255" s="96" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E255" s="86">
         <v>1</v>
@@ -21738,7 +21740,7 @@
         <v>216</v>
       </c>
       <c r="C256" s="88" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D256" s="86">
         <v>15</v>
@@ -21758,7 +21760,7 @@
         <v>316</v>
       </c>
       <c r="D257" s="96" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E257" s="86">
         <v>1</v>
@@ -21772,7 +21774,7 @@
         <v>217</v>
       </c>
       <c r="C258" s="88" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D258" s="86">
         <v>15</v>
@@ -21792,7 +21794,7 @@
         <v>316</v>
       </c>
       <c r="D259" s="96" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E259" s="86">
         <v>1</v>
@@ -21806,7 +21808,7 @@
         <v>218</v>
       </c>
       <c r="C260" s="88" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D260" s="86">
         <v>15</v>
@@ -21826,7 +21828,7 @@
         <v>316</v>
       </c>
       <c r="D261" s="96" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E261" s="86">
         <v>1</v>
@@ -21840,7 +21842,7 @@
         <v>219</v>
       </c>
       <c r="C262" s="88" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D262" s="86">
         <v>30</v>
@@ -21860,7 +21862,7 @@
         <v>316</v>
       </c>
       <c r="D263" s="96" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E263" s="86">
         <v>1</v>
@@ -21874,7 +21876,7 @@
         <v>220</v>
       </c>
       <c r="C264" s="88" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D264" s="86">
         <v>15</v>
@@ -21894,7 +21896,7 @@
         <v>316</v>
       </c>
       <c r="D265" s="96" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E265" s="86">
         <v>1</v>
@@ -21908,7 +21910,7 @@
         <v>221</v>
       </c>
       <c r="C266" s="88" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D266" s="86">
         <v>15</v>
@@ -21928,7 +21930,7 @@
         <v>316</v>
       </c>
       <c r="D267" s="96" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E267" s="86">
         <v>1</v>
@@ -21942,7 +21944,7 @@
         <v>222</v>
       </c>
       <c r="C268" s="88" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D268" s="86">
         <v>15</v>
@@ -21962,7 +21964,7 @@
         <v>316</v>
       </c>
       <c r="D269" s="96" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E269" s="86">
         <v>1</v>
@@ -21976,7 +21978,7 @@
         <v>223</v>
       </c>
       <c r="C270" s="88" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D270" s="86">
         <v>20</v>
@@ -21996,7 +21998,7 @@
         <v>316</v>
       </c>
       <c r="D271" s="96" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E271" s="86">
         <v>1</v>
@@ -22010,7 +22012,7 @@
         <v>224</v>
       </c>
       <c r="C272" s="88" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D272" s="86">
         <v>30</v>
@@ -22030,7 +22032,7 @@
         <v>316</v>
       </c>
       <c r="D273" s="96" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E273" s="86">
         <v>1</v>
@@ -22044,7 +22046,7 @@
         <v>225</v>
       </c>
       <c r="C274" s="88" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D274" s="86">
         <v>15</v>
@@ -22064,7 +22066,7 @@
         <v>316</v>
       </c>
       <c r="D275" s="96" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E275" s="86">
         <v>1</v>
@@ -22078,7 +22080,7 @@
         <v>226</v>
       </c>
       <c r="C276" s="88" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D276" s="86">
         <v>15</v>
@@ -22098,7 +22100,7 @@
         <v>316</v>
       </c>
       <c r="D277" s="96" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E277" s="86">
         <v>1</v>
@@ -22112,7 +22114,7 @@
         <v>227</v>
       </c>
       <c r="C278" s="88" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D278" s="86">
         <v>15</v>
@@ -22132,7 +22134,7 @@
         <v>316</v>
       </c>
       <c r="D279" s="96" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E279" s="86">
         <v>1</v>
@@ -22146,7 +22148,7 @@
         <v>228</v>
       </c>
       <c r="C280" s="88" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D280" s="86">
         <v>20</v>
@@ -22166,7 +22168,7 @@
         <v>316</v>
       </c>
       <c r="D281" s="96" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E281" s="86">
         <v>1</v>
@@ -22180,7 +22182,7 @@
         <v>229</v>
       </c>
       <c r="C282" s="88" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D282" s="86">
         <v>30</v>
@@ -22197,7 +22199,7 @@
         <v>230</v>
       </c>
       <c r="C283" s="88" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D283" s="86">
         <v>259200</v>
@@ -22214,7 +22216,7 @@
         <v>231</v>
       </c>
       <c r="C284" s="88" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D284" s="86">
         <v>80000</v>
@@ -22231,7 +22233,7 @@
         <v>232</v>
       </c>
       <c r="C285" s="88" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D285" s="86">
         <v>100</v>
@@ -22248,7 +22250,7 @@
         <v>233</v>
       </c>
       <c r="C286" s="88" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D286" s="86">
         <v>500</v>
@@ -22265,7 +22267,7 @@
         <v>234</v>
       </c>
       <c r="C287" s="88" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D287" s="86">
         <v>1500</v>
@@ -22282,7 +22284,7 @@
         <v>235</v>
       </c>
       <c r="C288" s="88" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D288" s="86">
         <v>3000</v>
@@ -22299,7 +22301,7 @@
         <v>236</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D289" s="4">
         <v>5</v>
@@ -22316,7 +22318,7 @@
         <v>237</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D290" s="4">
         <v>10</v>
@@ -22333,7 +22335,7 @@
         <v>238</v>
       </c>
       <c r="C291" s="83" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D291" s="4">
         <v>20</v>
@@ -22350,7 +22352,7 @@
         <v>239</v>
       </c>
       <c r="C292" s="97" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D292" s="4">
         <v>30</v>
@@ -22367,7 +22369,7 @@
         <v>240</v>
       </c>
       <c r="C293" s="97" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D293" s="4">
         <v>50</v>
@@ -22384,7 +22386,7 @@
         <v>241</v>
       </c>
       <c r="C294" s="83" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D294" s="4">
         <v>100</v>
@@ -22401,7 +22403,7 @@
         <v>242</v>
       </c>
       <c r="C295" s="97" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D295" s="4">
         <v>120</v>
@@ -22418,7 +22420,7 @@
         <v>243</v>
       </c>
       <c r="C296" s="97" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D296" s="4">
         <v>150</v>
@@ -22435,7 +22437,7 @@
         <v>244</v>
       </c>
       <c r="C297" s="83" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D297" s="4">
         <v>180</v>
@@ -22452,7 +22454,7 @@
         <v>245</v>
       </c>
       <c r="C298" s="97" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D298" s="4">
         <v>240</v>
@@ -22469,7 +22471,7 @@
         <v>246</v>
       </c>
       <c r="C299" s="97" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D299" s="4">
         <v>350</v>
@@ -22486,7 +22488,7 @@
         <v>247</v>
       </c>
       <c r="C300" s="83" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D300" s="4">
         <v>600</v>
@@ -22503,7 +22505,7 @@
         <v>248</v>
       </c>
       <c r="C301" s="97" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D301" s="4">
         <v>1000</v>
@@ -22520,7 +22522,7 @@
         <v>249</v>
       </c>
       <c r="C302" s="97" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D302" s="4">
         <v>1500</v>
@@ -22537,7 +22539,7 @@
         <v>250</v>
       </c>
       <c r="C303" s="83" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D303" s="4">
         <v>2400</v>
@@ -22554,7 +22556,7 @@
         <v>251</v>
       </c>
       <c r="C304" s="97" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D304" s="4">
         <v>3600</v>
@@ -22571,7 +22573,7 @@
         <v>252</v>
       </c>
       <c r="C305" s="97" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D305" s="4">
         <v>4200</v>
@@ -22588,7 +22590,7 @@
         <v>253</v>
       </c>
       <c r="C306" s="83" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D306" s="4">
         <v>5400</v>
@@ -22605,7 +22607,7 @@
         <v>254</v>
       </c>
       <c r="C307" s="97" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D307" s="4">
         <v>10000</v>
@@ -22622,7 +22624,7 @@
         <v>255</v>
       </c>
       <c r="C308" s="97" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D308" s="4">
         <v>30000</v>
@@ -22639,7 +22641,7 @@
         <v>256</v>
       </c>
       <c r="C309" s="83" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D309" s="4">
         <v>100000</v>
@@ -22656,7 +22658,7 @@
         <v>257</v>
       </c>
       <c r="C310" s="97" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D310" s="4">
         <v>120000</v>
@@ -22673,7 +22675,7 @@
         <v>258</v>
       </c>
       <c r="C311" s="97" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D311" s="4">
         <v>200000</v>
@@ -22690,7 +22692,7 @@
         <v>259</v>
       </c>
       <c r="C312" s="83" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D312" s="4">
         <v>400000</v>
@@ -22707,7 +22709,7 @@
         <v>260</v>
       </c>
       <c r="C313" s="97" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D313" s="4">
         <v>600000</v>
@@ -22724,7 +22726,7 @@
         <v>261</v>
       </c>
       <c r="C314" s="97" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D314" s="4">
         <v>300</v>
@@ -22741,7 +22743,7 @@
         <v>262</v>
       </c>
       <c r="C315" s="97" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D315" s="4">
         <v>400</v>
@@ -22758,7 +22760,7 @@
         <v>263</v>
       </c>
       <c r="C316" s="83" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D316" s="4">
         <v>500</v>
@@ -22775,7 +22777,7 @@
         <v>264</v>
       </c>
       <c r="C317" s="97" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D317" s="4">
         <v>600</v>
@@ -22792,7 +22794,7 @@
         <v>265</v>
       </c>
       <c r="C318" s="97" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D318" s="4">
         <v>700</v>
@@ -22809,7 +22811,7 @@
         <v>266</v>
       </c>
       <c r="C319" s="97" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D319" s="4">
         <v>900</v>
@@ -22826,7 +22828,7 @@
         <v>267</v>
       </c>
       <c r="C320" s="83" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D320" s="4">
         <v>1200</v>
@@ -22843,7 +22845,7 @@
         <v>268</v>
       </c>
       <c r="C321" s="97" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D321" s="4">
         <v>2400</v>
@@ -22860,7 +22862,7 @@
         <v>269</v>
       </c>
       <c r="C322" s="97" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D322" s="4">
         <v>4800</v>
@@ -22877,7 +22879,7 @@
         <v>270</v>
       </c>
       <c r="C323" s="97" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D323" s="4">
         <v>7200</v>
@@ -22894,7 +22896,7 @@
         <v>271</v>
       </c>
       <c r="C324" s="83" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D324" s="4">
         <v>12000</v>
@@ -22911,7 +22913,7 @@
         <v>272</v>
       </c>
       <c r="C325" s="97" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D325" s="4">
         <v>18000</v>
@@ -22928,7 +22930,7 @@
         <v>273</v>
       </c>
       <c r="C326" s="97" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D326" s="4">
         <v>48000</v>
@@ -22945,7 +22947,7 @@
         <v>274</v>
       </c>
       <c r="C327" s="97" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D327" s="4">
         <v>120000</v>
@@ -22962,7 +22964,7 @@
         <v>275</v>
       </c>
       <c r="C328" s="83" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D328" s="4">
         <v>10000</v>
@@ -22979,7 +22981,7 @@
         <v>275</v>
       </c>
       <c r="C329" s="83" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D329" s="4">
         <v>1</v>
@@ -22996,7 +22998,7 @@
         <v>275</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D330" s="4">
         <v>604800</v>
@@ -23013,7 +23015,7 @@
         <v>276</v>
       </c>
       <c r="C331" s="83" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D331" s="4">
         <v>10000</v>
@@ -23030,7 +23032,7 @@
         <v>276</v>
       </c>
       <c r="C332" s="83" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D332" s="4">
         <v>3</v>
@@ -23047,7 +23049,7 @@
         <v>276</v>
       </c>
       <c r="C333" s="83" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D333" s="4">
         <v>3</v>
@@ -23064,7 +23066,7 @@
         <v>277</v>
       </c>
       <c r="C334" s="83" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D334" s="4">
         <v>10000</v>
@@ -23081,7 +23083,7 @@
         <v>277</v>
       </c>
       <c r="C335" s="83" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D335" s="4">
         <v>4</v>
@@ -23098,7 +23100,7 @@
         <v>277</v>
       </c>
       <c r="C336" s="83" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D336" s="4">
         <v>4</v>
@@ -23115,7 +23117,7 @@
         <v>278</v>
       </c>
       <c r="C337" s="83" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D337" s="4">
         <v>20000</v>
@@ -23132,7 +23134,7 @@
         <v>278</v>
       </c>
       <c r="C338" s="83" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D338" s="4">
         <v>5</v>
@@ -23149,7 +23151,7 @@
         <v>278</v>
       </c>
       <c r="C339" s="83" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D339" s="4">
         <v>5</v>
@@ -23166,7 +23168,7 @@
         <v>279</v>
       </c>
       <c r="C340" s="83" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D340" s="4">
         <v>20000</v>
@@ -23183,7 +23185,7 @@
         <v>279</v>
       </c>
       <c r="C341" s="83" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D341" s="4">
         <v>6</v>
@@ -23200,7 +23202,7 @@
         <v>279</v>
       </c>
       <c r="C342" s="83" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D342" s="4">
         <v>6</v>
@@ -23217,7 +23219,7 @@
         <v>280</v>
       </c>
       <c r="C343" s="83" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D343" s="4">
         <v>20000</v>
@@ -23234,7 +23236,7 @@
         <v>280</v>
       </c>
       <c r="C344" s="83" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D344" s="4">
         <v>8</v>
@@ -23251,7 +23253,7 @@
         <v>280</v>
       </c>
       <c r="C345" s="83" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D345" s="4">
         <v>8</v>
@@ -23268,7 +23270,7 @@
         <v>281</v>
       </c>
       <c r="C346" s="83" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D346" s="4">
         <v>50000</v>
@@ -23285,7 +23287,7 @@
         <v>281</v>
       </c>
       <c r="C347" s="83" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D347" s="4">
         <v>10</v>
@@ -23302,7 +23304,7 @@
         <v>281</v>
       </c>
       <c r="C348" s="83" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D348" s="4">
         <v>10</v>
@@ -23319,7 +23321,7 @@
         <v>282</v>
       </c>
       <c r="C349" s="83" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D349" s="4">
         <v>20000</v>
@@ -23336,7 +23338,7 @@
         <v>282</v>
       </c>
       <c r="C350" s="83" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D350" s="4">
         <v>2</v>
@@ -23353,7 +23355,7 @@
         <v>282</v>
       </c>
       <c r="C351" s="83" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D351" s="112">
         <v>604800</v>
@@ -23372,7 +23374,7 @@
         <v>283</v>
       </c>
       <c r="C352" s="83" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D352" s="4">
         <v>30000</v>
@@ -23389,7 +23391,7 @@
         <v>283</v>
       </c>
       <c r="C353" s="83" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D353" s="4">
         <v>3</v>
@@ -23406,7 +23408,7 @@
         <v>283</v>
       </c>
       <c r="C354" s="83" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D354" s="4">
         <v>3</v>
@@ -23423,7 +23425,7 @@
         <v>284</v>
       </c>
       <c r="C355" s="83" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D355" s="4">
         <v>40000</v>
@@ -23440,7 +23442,7 @@
         <v>284</v>
       </c>
       <c r="C356" s="83" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D356" s="4">
         <v>4</v>
@@ -23457,7 +23459,7 @@
         <v>284</v>
       </c>
       <c r="C357" s="83" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D357" s="4">
         <v>4</v>
@@ -23474,7 +23476,7 @@
         <v>285</v>
       </c>
       <c r="C358" s="83" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D358" s="4">
         <v>50000</v>
@@ -23491,7 +23493,7 @@
         <v>285</v>
       </c>
       <c r="C359" s="83" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D359" s="4">
         <v>5</v>
@@ -23508,7 +23510,7 @@
         <v>285</v>
       </c>
       <c r="C360" s="83" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D360" s="4">
         <v>5</v>
@@ -23525,7 +23527,7 @@
         <v>286</v>
       </c>
       <c r="C361" s="83" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D361" s="4">
         <v>60000</v>
@@ -23542,7 +23544,7 @@
         <v>286</v>
       </c>
       <c r="C362" s="83" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D362" s="4">
         <v>6</v>
@@ -23559,7 +23561,7 @@
         <v>286</v>
       </c>
       <c r="C363" s="83" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D363" s="4">
         <v>6</v>
@@ -23576,7 +23578,7 @@
         <v>287</v>
       </c>
       <c r="C364" s="83" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D364" s="4">
         <v>70000</v>
@@ -23593,7 +23595,7 @@
         <v>287</v>
       </c>
       <c r="C365" s="83" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D365" s="4">
         <v>8</v>
@@ -23610,7 +23612,7 @@
         <v>287</v>
       </c>
       <c r="C366" s="83" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D366" s="4">
         <v>8</v>
@@ -23627,7 +23629,7 @@
         <v>288</v>
       </c>
       <c r="C367" s="83" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D367" s="4">
         <v>80000</v>
@@ -23644,7 +23646,7 @@
         <v>288</v>
       </c>
       <c r="C368" s="83" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D368" s="4">
         <v>10</v>
@@ -23661,7 +23663,7 @@
         <v>288</v>
       </c>
       <c r="C369" s="83" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D369" s="4">
         <v>10</v>
@@ -23678,7 +23680,7 @@
         <v>289</v>
       </c>
       <c r="C370" s="83" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D370" s="4">
         <v>50000</v>
@@ -23695,7 +23697,7 @@
         <v>289</v>
       </c>
       <c r="C371" s="83" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D371" s="4">
         <v>5</v>
@@ -23712,7 +23714,7 @@
         <v>289</v>
       </c>
       <c r="C372" s="83" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D372" s="112">
         <v>604800</v>
@@ -23729,7 +23731,7 @@
         <v>290</v>
       </c>
       <c r="C373" s="83" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D373" s="4">
         <v>60000</v>
@@ -23746,7 +23748,7 @@
         <v>290</v>
       </c>
       <c r="C374" s="83" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D374" s="4">
         <v>6</v>
@@ -23763,7 +23765,7 @@
         <v>290</v>
       </c>
       <c r="C375" s="83" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D375" s="4">
         <v>6</v>
@@ -23780,7 +23782,7 @@
         <v>291</v>
       </c>
       <c r="C376" s="83" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D376" s="4">
         <v>70000</v>
@@ -23797,7 +23799,7 @@
         <v>291</v>
       </c>
       <c r="C377" s="83" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D377" s="4">
         <v>8</v>
@@ -23814,7 +23816,7 @@
         <v>291</v>
       </c>
       <c r="C378" s="83" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D378" s="4">
         <v>8</v>
@@ -23831,7 +23833,7 @@
         <v>292</v>
       </c>
       <c r="C379" s="83" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D379" s="4">
         <v>80000</v>
@@ -23848,7 +23850,7 @@
         <v>292</v>
       </c>
       <c r="C380" s="83" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D380" s="4">
         <v>10</v>
@@ -23865,7 +23867,7 @@
         <v>292</v>
       </c>
       <c r="C381" s="83" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D381" s="4">
         <v>10</v>
@@ -23882,7 +23884,7 @@
         <v>293</v>
       </c>
       <c r="C382" s="83" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D382" s="4">
         <v>90000</v>
@@ -23899,7 +23901,7 @@
         <v>293</v>
       </c>
       <c r="C383" s="83" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D383" s="4">
         <v>12</v>
@@ -23916,7 +23918,7 @@
         <v>293</v>
       </c>
       <c r="C384" s="83" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D384" s="4">
         <v>12</v>
@@ -23933,7 +23935,7 @@
         <v>294</v>
       </c>
       <c r="C385" s="83" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D385" s="4">
         <v>100000</v>
@@ -23950,7 +23952,7 @@
         <v>294</v>
       </c>
       <c r="C386" s="83" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D386" s="4">
         <v>15</v>
@@ -23967,7 +23969,7 @@
         <v>294</v>
       </c>
       <c r="C387" s="83" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D387" s="4">
         <v>15</v>
@@ -23984,7 +23986,7 @@
         <v>295</v>
       </c>
       <c r="C388" s="83" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D388" s="4">
         <v>200000</v>
@@ -24001,7 +24003,7 @@
         <v>295</v>
       </c>
       <c r="C389" s="83" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D389" s="4">
         <v>20</v>
@@ -24018,7 +24020,7 @@
         <v>295</v>
       </c>
       <c r="C390" s="83" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D390" s="4">
         <v>20</v>
@@ -24035,7 +24037,7 @@
         <v>296</v>
       </c>
       <c r="C391" s="83" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D391" s="4">
         <v>10000</v>
@@ -24052,7 +24054,7 @@
         <v>297</v>
       </c>
       <c r="C392" s="83" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D392" s="4">
         <v>5</v>
@@ -24069,7 +24071,7 @@
         <v>298</v>
       </c>
       <c r="C393" s="83" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D393" s="4">
         <v>5</v>
@@ -24086,7 +24088,7 @@
         <v>299</v>
       </c>
       <c r="C394" s="83" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D394" s="4">
         <v>10000</v>
@@ -24103,7 +24105,7 @@
         <v>300</v>
       </c>
       <c r="C395" s="83" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D395" s="4">
         <v>15000</v>
@@ -24120,7 +24122,7 @@
         <v>301</v>
       </c>
       <c r="C396" s="83" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D396" s="4">
         <v>20000</v>
@@ -24137,7 +24139,7 @@
         <v>302</v>
       </c>
       <c r="C397" s="83" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D397" s="4">
         <v>25000</v>
@@ -24154,7 +24156,7 @@
         <v>303</v>
       </c>
       <c r="C398" s="83" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D398" s="4">
         <v>50000</v>
@@ -24171,7 +24173,7 @@
         <v>304</v>
       </c>
       <c r="C399" s="83" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D399" s="4">
         <v>1000000</v>
@@ -24188,7 +24190,7 @@
         <v>304</v>
       </c>
       <c r="C400" s="83" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D400" s="4">
         <v>20</v>
@@ -24205,7 +24207,7 @@
         <v>305</v>
       </c>
       <c r="C401" s="83" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D401" s="4">
         <v>1000000</v>
@@ -24222,7 +24224,7 @@
         <v>305</v>
       </c>
       <c r="C402" s="83" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D402" s="4">
         <v>30</v>
@@ -24239,7 +24241,7 @@
         <v>306</v>
       </c>
       <c r="C403" s="83" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D403" s="4">
         <v>1000000</v>
@@ -24256,7 +24258,7 @@
         <v>306</v>
       </c>
       <c r="C404" s="83" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D404" s="4">
         <v>50</v>
@@ -24273,7 +24275,7 @@
         <v>307</v>
       </c>
       <c r="C405" s="83" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D405" s="4">
         <v>100000</v>
@@ -24290,7 +24292,7 @@
         <v>307</v>
       </c>
       <c r="C406" s="83" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D406" s="4">
         <v>50</v>
@@ -24307,7 +24309,7 @@
         <v>308</v>
       </c>
       <c r="C407" s="83" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D407" s="4">
         <v>200000</v>
@@ -24324,7 +24326,7 @@
         <v>308</v>
       </c>
       <c r="C408" s="83" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D408" s="4">
         <v>100</v>
@@ -24341,7 +24343,7 @@
         <v>309</v>
       </c>
       <c r="C409" s="83" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D409" s="4">
         <v>1000</v>
@@ -24374,10 +24376,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B1" t="s">
         <v>402</v>
-      </c>
-      <c r="B1" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -24385,7 +24387,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -24393,7 +24395,7 @@
         <v>215</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -24401,39 +24403,39 @@
         <v>206</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>407</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>409</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>411</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>413</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -24441,7 +24443,7 @@
         <v>379</v>
       </c>
       <c r="B9" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -24449,7 +24451,7 @@
         <v>382</v>
       </c>
       <c r="B10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -24478,13 +24480,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>418</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>419</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -24497,7 +24499,7 @@
         <v>206</v>
       </c>
       <c r="B2" s="114" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C2" s="114">
         <v>1</v>
@@ -24512,24 +24514,24 @@
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1">
       <c r="A4" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>422</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1">
       <c r="A5" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>425</v>
-      </c>
       <c r="C5" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -24537,7 +24539,7 @@
         <v>214</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
@@ -24548,7 +24550,7 @@
         <v>215</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
@@ -24559,10 +24561,10 @@
         <v>278</v>
       </c>
       <c r="B8" s="114" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C8" s="114" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1">
@@ -24574,10 +24576,10 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1">
       <c r="A10" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="B10" s="114" t="s">
         <v>429</v>
-      </c>
-      <c r="B10" s="114" t="s">
-        <v>430</v>
       </c>
       <c r="C10" s="114">
         <v>1</v>
@@ -24595,18 +24597,18 @@
         <v>221</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="2" customFormat="1">
       <c r="A13" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>433</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
@@ -24614,10 +24616,10 @@
     </row>
     <row r="14" spans="1:8" s="2" customFormat="1">
       <c r="A14" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>435</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
@@ -24625,10 +24627,10 @@
     </row>
     <row r="15" spans="1:8" s="2" customFormat="1">
       <c r="A15" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>437</v>
       </c>
       <c r="C15" s="7">
         <v>1</v>
@@ -24639,18 +24641,18 @@
         <v>219</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="3" customFormat="1">
       <c r="A17" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>439</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>440</v>
       </c>
       <c r="C17" s="8">
         <v>1</v>
@@ -24661,21 +24663,21 @@
         <v>231</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="3" customFormat="1">
       <c r="A19" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>443</v>
-      </c>
       <c r="C19" s="8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -24683,7 +24685,7 @@
         <v>224</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C20" s="4">
         <v>1</v>
@@ -24694,7 +24696,7 @@
         <v>225</v>
       </c>
       <c r="B21" s="115" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C21" s="115">
         <v>1</v>
@@ -24702,7 +24704,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B22" s="115"/>
       <c r="C22" s="115"/>
@@ -24712,10 +24714,10 @@
         <v>267</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="3" customFormat="1">
@@ -24723,7 +24725,7 @@
         <v>304</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C24" s="8">
         <v>1</v>
@@ -24731,13 +24733,13 @@
     </row>
     <row r="25" spans="1:3" s="3" customFormat="1">
       <c r="A25" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>450</v>
-      </c>
       <c r="C25" s="8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -24745,7 +24747,7 @@
         <v>226</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C26" s="4">
         <v>1</v>
@@ -24756,10 +24758,10 @@
         <v>271</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="3" customFormat="1">
@@ -24767,18 +24769,18 @@
         <v>269</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="3" customFormat="1">
       <c r="A29" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>454</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>455</v>
       </c>
       <c r="C29" s="8">
         <v>1</v>
@@ -24786,10 +24788,10 @@
     </row>
     <row r="30" spans="1:3" s="3" customFormat="1">
       <c r="A30" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>456</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>457</v>
       </c>
       <c r="C30" s="8">
         <v>1</v>
@@ -24797,13 +24799,13 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>459</v>
-      </c>
       <c r="C31" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -24811,18 +24813,18 @@
         <v>270</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="33" spans="1:16384">
       <c r="A33" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>461</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>462</v>
       </c>
       <c r="C33" s="4">
         <v>1</v>
@@ -24830,13 +24832,13 @@
     </row>
     <row r="34" spans="1:16384">
       <c r="A34" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>464</v>
-      </c>
       <c r="C34" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="35" spans="1:16384" s="3" customFormat="1">
@@ -24844,10 +24846,10 @@
         <v>268</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="36" spans="1:16384" s="3" customFormat="1">
@@ -24855,7 +24857,7 @@
         <v>298</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C36" s="8">
         <v>1</v>
@@ -24863,21 +24865,21 @@
     </row>
     <row r="37" spans="1:16384" s="3" customFormat="1">
       <c r="A37" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="B37" s="8" t="s">
         <v>467</v>
       </c>
-      <c r="B37" s="8" t="s">
-        <v>468</v>
-      </c>
       <c r="C37" s="8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="38" spans="1:16384" s="3" customFormat="1">
       <c r="A38" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="B38" s="8" t="s">
         <v>469</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>470</v>
       </c>
       <c r="C38" s="8">
         <v>1</v>
@@ -24888,7 +24890,7 @@
         <v>236</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C39" s="7">
         <v>1</v>
@@ -24899,7 +24901,7 @@
         <v>237</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C40" s="7">
         <v>1</v>
@@ -24910,7 +24912,7 @@
         <v>238</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C41" s="7">
         <v>1</v>
@@ -24921,18 +24923,18 @@
         <v>232</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="43" spans="1:16384" s="2" customFormat="1">
       <c r="A43" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="B43" s="7" t="s">
         <v>475</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>476</v>
       </c>
       <c r="C43" s="7">
         <v>1</v>
@@ -57709,18 +57711,18 @@
     </row>
     <row r="45" spans="1:16384" s="1" customFormat="1">
       <c r="A45" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="B45" s="114" t="s">
         <v>477</v>
       </c>
-      <c r="B45" s="114" t="s">
-        <v>478</v>
-      </c>
       <c r="C45" s="114" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="46" spans="1:16384" s="1" customFormat="1">
       <c r="A46" s="6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B46" s="114"/>
       <c r="C46" s="114"/>
@@ -57730,7 +57732,7 @@
         <v>301</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C47" s="6">
         <v>1</v>
@@ -57738,10 +57740,10 @@
     </row>
     <row r="48" spans="1:16384">
       <c r="A48" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>481</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>482</v>
       </c>
       <c r="C48" s="4">
         <v>1</v>
@@ -57749,10 +57751,10 @@
     </row>
     <row r="49" spans="1:3" s="1" customFormat="1">
       <c r="A49" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>483</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>484</v>
       </c>
       <c r="C49" s="6">
         <v>1</v>
@@ -57760,21 +57762,21 @@
     </row>
     <row r="50" spans="1:3" s="1" customFormat="1">
       <c r="A50" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="B50" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="B50" s="6" t="s">
-        <v>486</v>
-      </c>
       <c r="C50" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>487</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>488</v>
       </c>
       <c r="C51" s="4">
         <v>1</v>
@@ -57782,10 +57784,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>489</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>490</v>
       </c>
       <c r="C52" s="4">
         <v>1</v>
@@ -57793,10 +57795,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>491</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>492</v>
       </c>
       <c r="C53" s="4">
         <v>1</v>
@@ -57804,10 +57806,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>493</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>494</v>
       </c>
       <c r="C54" s="4">
         <v>1</v>
@@ -57815,10 +57817,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>495</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>496</v>
       </c>
       <c r="C55" s="4">
         <v>1</v>
@@ -57826,16 +57828,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C45:C46"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C45:C46"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
